--- a/src/Services/usuarios.xlsx
+++ b/src/Services/usuarios.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20414"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\teodepagos\src\Services\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{635E402B-6C81-4948-BA57-F10F35CE7BCB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91DDD129-808E-491D-8881-EA31071C7C6B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{C3CB8991-09D1-4F35-B378-62C6011C30C3}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{C3CB8991-09D1-4F35-B378-62C6011C30C3}"/>
   </bookViews>
   <sheets>
     <sheet name="usuarios" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="721">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="722">
   <si>
     <t>nombre_apellido</t>
   </si>
@@ -2115,86 +2115,89 @@
     <t>19122009</t>
   </si>
   <si>
-    <t>48540634</t>
-  </si>
-  <si>
-    <t>49393473</t>
-  </si>
-  <si>
-    <t>49271791</t>
-  </si>
-  <si>
-    <t>49202241</t>
-  </si>
-  <si>
-    <t>49271653</t>
-  </si>
-  <si>
-    <t>48748072</t>
-  </si>
-  <si>
-    <t>48738437</t>
-  </si>
-  <si>
-    <t>48747890</t>
-  </si>
-  <si>
-    <t>47770732</t>
-  </si>
-  <si>
-    <t>49202659</t>
-  </si>
-  <si>
-    <t>70000401</t>
-  </si>
-  <si>
-    <t>70000402</t>
-  </si>
-  <si>
-    <t>70000403</t>
-  </si>
-  <si>
-    <t>70000404</t>
-  </si>
-  <si>
-    <t>70000405</t>
-  </si>
-  <si>
-    <t>70000406</t>
-  </si>
-  <si>
-    <t>70000407</t>
-  </si>
-  <si>
-    <t>50100000</t>
-  </si>
-  <si>
-    <t>50200000</t>
-  </si>
-  <si>
-    <t>50300000</t>
-  </si>
-  <si>
-    <t>50400000</t>
-  </si>
-  <si>
-    <t>50500000</t>
-  </si>
-  <si>
-    <t>50600000</t>
-  </si>
-  <si>
-    <t>50700000</t>
-  </si>
-  <si>
-    <t>50800000</t>
+    <t>06012009</t>
+  </si>
+  <si>
+    <t>09022009</t>
+  </si>
+  <si>
+    <t>27022009</t>
+  </si>
+  <si>
+    <t>07022009</t>
+  </si>
+  <si>
+    <t>12102008</t>
+  </si>
+  <si>
+    <t>12092008</t>
+  </si>
+  <si>
+    <t>26032007</t>
+  </si>
+  <si>
+    <t>19022009</t>
+  </si>
+  <si>
+    <t>17012008</t>
+  </si>
+  <si>
+    <t>09112007</t>
+  </si>
+  <si>
+    <t>30072007</t>
+  </si>
+  <si>
+    <t>25022008</t>
+  </si>
+  <si>
+    <t>14112006</t>
+  </si>
+  <si>
+    <t>24032007</t>
+  </si>
+  <si>
+    <t>30032007</t>
+  </si>
+  <si>
+    <t>07122006</t>
+  </si>
+  <si>
+    <t>28052007</t>
+  </si>
+  <si>
+    <t>08032007</t>
+  </si>
+  <si>
+    <t>26102006</t>
+  </si>
+  <si>
+    <t>Javier Caceres</t>
+  </si>
+  <si>
+    <t>Nahuel Andrade</t>
+  </si>
+  <si>
+    <t>Nahuel Crocombete</t>
+  </si>
+  <si>
+    <t>3595</t>
+  </si>
+  <si>
+    <t>12052002</t>
+  </si>
+  <si>
+    <t>12112002</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2208,6 +2211,23 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF212121"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2233,10 +2253,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2259,9 +2280,19 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2574,10 +2605,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7557DFF3-677F-4336-ADBF-1E30464B0F93}">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:J383"/>
+  <dimension ref="A1:J386"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A359" workbookViewId="0">
-      <selection activeCell="H371" sqref="H371"/>
+    <sheetView tabSelected="1" topLeftCell="A357" workbookViewId="0">
+      <selection activeCell="F385" sqref="F385"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9395,8 +9426,8 @@
       <c r="B359">
         <v>48540634</v>
       </c>
-      <c r="C359" s="9" t="s">
-        <v>696</v>
+      <c r="C359" s="10" t="s">
+        <v>683</v>
       </c>
       <c r="D359" t="s">
         <v>628</v>
@@ -9407,7 +9438,7 @@
       <c r="F359" s="4">
         <v>0</v>
       </c>
-      <c r="G359" s="4"/>
+      <c r="G359" s="10"/>
     </row>
     <row r="360" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A360" s="5" t="s">
@@ -9416,8 +9447,8 @@
       <c r="B360">
         <v>49393473</v>
       </c>
-      <c r="C360" s="9" t="s">
-        <v>697</v>
+      <c r="C360" s="10" t="s">
+        <v>696</v>
       </c>
       <c r="D360" s="4" t="s">
         <v>628</v>
@@ -9428,7 +9459,7 @@
       <c r="F360" s="4">
         <v>0</v>
       </c>
-      <c r="G360" s="4"/>
+      <c r="G360" s="10"/>
       <c r="H360" s="4"/>
       <c r="J360" s="4"/>
     </row>
@@ -9439,8 +9470,8 @@
       <c r="B361">
         <v>49271791</v>
       </c>
-      <c r="C361" s="9" t="s">
-        <v>698</v>
+      <c r="C361" s="10" t="s">
+        <v>697</v>
       </c>
       <c r="D361" s="4" t="s">
         <v>628</v>
@@ -9451,7 +9482,7 @@
       <c r="F361" s="4">
         <v>0</v>
       </c>
-      <c r="G361" s="4"/>
+      <c r="G361" s="10"/>
       <c r="H361" s="4"/>
       <c r="J361" s="4"/>
     </row>
@@ -9462,8 +9493,8 @@
       <c r="B362">
         <v>49202241</v>
       </c>
-      <c r="C362" s="9" t="s">
-        <v>699</v>
+      <c r="C362" s="10" t="s">
+        <v>698</v>
       </c>
       <c r="D362" s="4" t="s">
         <v>628</v>
@@ -9474,7 +9505,7 @@
       <c r="F362" s="4">
         <v>0</v>
       </c>
-      <c r="G362" s="4"/>
+      <c r="G362" s="10"/>
       <c r="H362" s="4"/>
       <c r="J362" s="4"/>
     </row>
@@ -9485,8 +9516,8 @@
       <c r="B363">
         <v>49271653</v>
       </c>
-      <c r="C363" s="9" t="s">
-        <v>700</v>
+      <c r="C363" s="10" t="s">
+        <v>699</v>
       </c>
       <c r="D363" s="4" t="s">
         <v>628</v>
@@ -9497,7 +9528,7 @@
       <c r="F363" s="4">
         <v>0</v>
       </c>
-      <c r="G363" s="4"/>
+      <c r="G363" s="10"/>
       <c r="H363" s="4"/>
       <c r="J363" s="4"/>
     </row>
@@ -9508,8 +9539,8 @@
       <c r="B364">
         <v>48748072</v>
       </c>
-      <c r="C364" s="9" t="s">
-        <v>701</v>
+      <c r="C364" s="10" t="s">
+        <v>700</v>
       </c>
       <c r="D364" s="4" t="s">
         <v>628</v>
@@ -9520,7 +9551,7 @@
       <c r="F364" s="4">
         <v>0</v>
       </c>
-      <c r="G364" s="4"/>
+      <c r="G364" s="10"/>
       <c r="H364" s="4"/>
       <c r="J364" s="4"/>
     </row>
@@ -9531,8 +9562,8 @@
       <c r="B365">
         <v>48738437</v>
       </c>
-      <c r="C365" s="9" t="s">
-        <v>702</v>
+      <c r="C365" s="10" t="s">
+        <v>222</v>
       </c>
       <c r="D365" s="4" t="s">
         <v>628</v>
@@ -9543,7 +9574,7 @@
       <c r="F365" s="4">
         <v>0</v>
       </c>
-      <c r="G365" s="4"/>
+      <c r="G365" s="10"/>
       <c r="H365" s="4"/>
       <c r="J365" s="4"/>
     </row>
@@ -9554,8 +9585,8 @@
       <c r="B366">
         <v>48747890</v>
       </c>
-      <c r="C366" s="9" t="s">
-        <v>703</v>
+      <c r="C366" s="10" t="s">
+        <v>701</v>
       </c>
       <c r="D366" s="4" t="s">
         <v>628</v>
@@ -9566,7 +9597,7 @@
       <c r="F366" s="4">
         <v>0</v>
       </c>
-      <c r="G366" s="4"/>
+      <c r="G366" s="10"/>
       <c r="H366" s="4"/>
       <c r="J366" s="4"/>
     </row>
@@ -9577,8 +9608,8 @@
       <c r="B367">
         <v>47770732</v>
       </c>
-      <c r="C367" s="9" t="s">
-        <v>704</v>
+      <c r="C367" s="11" t="s">
+        <v>702</v>
       </c>
       <c r="D367" s="4" t="s">
         <v>628</v>
@@ -9589,7 +9620,7 @@
       <c r="F367" s="4">
         <v>0</v>
       </c>
-      <c r="G367" s="4"/>
+      <c r="G367" s="11"/>
       <c r="H367" s="4"/>
       <c r="J367" s="4"/>
     </row>
@@ -9600,8 +9631,8 @@
       <c r="B368">
         <v>49202659</v>
       </c>
-      <c r="C368" s="9" t="s">
-        <v>705</v>
+      <c r="C368" s="10" t="s">
+        <v>703</v>
       </c>
       <c r="D368" s="4" t="s">
         <v>628</v>
@@ -9612,7 +9643,7 @@
       <c r="F368" s="4">
         <v>0</v>
       </c>
-      <c r="G368" s="4"/>
+      <c r="G368" s="10"/>
       <c r="H368" s="4"/>
       <c r="J368" s="4"/>
     </row>
@@ -9623,8 +9654,8 @@
       <c r="B369">
         <v>70000401</v>
       </c>
-      <c r="C369" s="9" t="s">
-        <v>706</v>
+      <c r="C369" s="10" t="s">
+        <v>141</v>
       </c>
       <c r="D369" s="4" t="s">
         <v>628</v>
@@ -9635,7 +9666,7 @@
       <c r="F369" s="4">
         <v>0</v>
       </c>
-      <c r="G369" s="4"/>
+      <c r="G369" s="10"/>
       <c r="H369" s="4"/>
       <c r="J369" s="4"/>
     </row>
@@ -9646,8 +9677,8 @@
       <c r="B370">
         <v>70000402</v>
       </c>
-      <c r="C370" s="9" t="s">
-        <v>707</v>
+      <c r="C370" s="10" t="s">
+        <v>704</v>
       </c>
       <c r="D370" s="4" t="s">
         <v>628</v>
@@ -9658,7 +9689,7 @@
       <c r="F370" s="4">
         <v>0</v>
       </c>
-      <c r="G370" s="4"/>
+      <c r="G370" s="10"/>
       <c r="H370" s="4"/>
       <c r="J370" s="4"/>
     </row>
@@ -9669,8 +9700,8 @@
       <c r="B371">
         <v>70000403</v>
       </c>
-      <c r="C371" s="9" t="s">
-        <v>708</v>
+      <c r="C371" s="10" t="s">
+        <v>226</v>
       </c>
       <c r="D371" s="4" t="s">
         <v>628</v>
@@ -9681,7 +9712,7 @@
       <c r="F371" s="4">
         <v>0</v>
       </c>
-      <c r="G371" s="4"/>
+      <c r="G371" s="10"/>
       <c r="H371" s="4"/>
       <c r="J371" s="4"/>
     </row>
@@ -9692,8 +9723,8 @@
       <c r="B372">
         <v>70000404</v>
       </c>
-      <c r="C372" s="9" t="s">
-        <v>709</v>
+      <c r="C372" s="10" t="s">
+        <v>705</v>
       </c>
       <c r="D372" s="4" t="s">
         <v>628</v>
@@ -9704,7 +9735,7 @@
       <c r="F372" s="4">
         <v>0</v>
       </c>
-      <c r="G372" s="4"/>
+      <c r="G372" s="10"/>
       <c r="H372" s="4"/>
       <c r="J372" s="4"/>
     </row>
@@ -9715,8 +9746,8 @@
       <c r="B373">
         <v>70000405</v>
       </c>
-      <c r="C373" s="9" t="s">
-        <v>710</v>
+      <c r="C373" s="10" t="s">
+        <v>706</v>
       </c>
       <c r="D373" s="4" t="s">
         <v>628</v>
@@ -9727,7 +9758,7 @@
       <c r="F373" s="4">
         <v>0</v>
       </c>
-      <c r="G373" s="4"/>
+      <c r="G373" s="10"/>
       <c r="H373" s="4"/>
       <c r="J373" s="4"/>
     </row>
@@ -9738,8 +9769,8 @@
       <c r="B374">
         <v>70000406</v>
       </c>
-      <c r="C374" s="9" t="s">
-        <v>711</v>
+      <c r="C374" s="10" t="s">
+        <v>707</v>
       </c>
       <c r="D374" s="4" t="s">
         <v>628</v>
@@ -9750,7 +9781,7 @@
       <c r="F374" s="4">
         <v>0</v>
       </c>
-      <c r="G374" s="4"/>
+      <c r="G374" s="10"/>
       <c r="H374" s="4"/>
       <c r="J374" s="4"/>
     </row>
@@ -9761,8 +9792,8 @@
       <c r="B375">
         <v>70000407</v>
       </c>
-      <c r="C375" s="9" t="s">
-        <v>712</v>
+      <c r="C375" s="10" t="s">
+        <v>207</v>
       </c>
       <c r="D375" s="4" t="s">
         <v>628</v>
@@ -9773,7 +9804,7 @@
       <c r="F375" s="4">
         <v>0</v>
       </c>
-      <c r="G375" s="4"/>
+      <c r="G375" s="10"/>
       <c r="H375" s="4"/>
       <c r="J375" s="4"/>
     </row>
@@ -9784,8 +9815,8 @@
       <c r="B376">
         <v>50100000</v>
       </c>
-      <c r="C376" s="9" t="s">
-        <v>713</v>
+      <c r="C376" s="10" t="s">
+        <v>708</v>
       </c>
       <c r="D376" s="4" t="s">
         <v>628</v>
@@ -9796,7 +9827,7 @@
       <c r="F376" s="4">
         <v>0</v>
       </c>
-      <c r="G376" s="4"/>
+      <c r="G376" s="10"/>
       <c r="H376" s="4"/>
       <c r="J376" s="4"/>
     </row>
@@ -9807,8 +9838,8 @@
       <c r="B377">
         <v>50200000</v>
       </c>
-      <c r="C377" s="9" t="s">
-        <v>714</v>
+      <c r="C377" s="10" t="s">
+        <v>709</v>
       </c>
       <c r="D377" s="4" t="s">
         <v>628</v>
@@ -9819,7 +9850,7 @@
       <c r="F377" s="4">
         <v>0</v>
       </c>
-      <c r="G377" s="4"/>
+      <c r="G377" s="10"/>
       <c r="H377" s="4"/>
       <c r="J377" s="4"/>
     </row>
@@ -9830,8 +9861,8 @@
       <c r="B378">
         <v>50300000</v>
       </c>
-      <c r="C378" s="9" t="s">
-        <v>715</v>
+      <c r="C378" s="10" t="s">
+        <v>710</v>
       </c>
       <c r="D378" s="4" t="s">
         <v>628</v>
@@ -9842,7 +9873,7 @@
       <c r="F378" s="4">
         <v>0</v>
       </c>
-      <c r="G378" s="4"/>
+      <c r="G378" s="10"/>
       <c r="H378" s="4"/>
       <c r="J378" s="4"/>
     </row>
@@ -9853,8 +9884,8 @@
       <c r="B379">
         <v>50400000</v>
       </c>
-      <c r="C379" s="9" t="s">
-        <v>716</v>
+      <c r="C379" s="10" t="s">
+        <v>709</v>
       </c>
       <c r="D379" s="4" t="s">
         <v>628</v>
@@ -9865,7 +9896,7 @@
       <c r="F379" s="4">
         <v>0</v>
       </c>
-      <c r="G379" s="4"/>
+      <c r="G379" s="10"/>
       <c r="H379" s="4"/>
       <c r="J379" s="4"/>
     </row>
@@ -9876,8 +9907,8 @@
       <c r="B380">
         <v>50500000</v>
       </c>
-      <c r="C380" s="9" t="s">
-        <v>717</v>
+      <c r="C380" s="10" t="s">
+        <v>711</v>
       </c>
       <c r="D380" s="4" t="s">
         <v>628</v>
@@ -9888,7 +9919,7 @@
       <c r="F380" s="4">
         <v>0</v>
       </c>
-      <c r="G380" s="4"/>
+      <c r="G380" s="10"/>
       <c r="H380" s="4"/>
       <c r="J380" s="4"/>
     </row>
@@ -9899,8 +9930,8 @@
       <c r="B381">
         <v>50600000</v>
       </c>
-      <c r="C381" s="9" t="s">
-        <v>718</v>
+      <c r="C381" s="10" t="s">
+        <v>712</v>
       </c>
       <c r="D381" s="4" t="s">
         <v>628</v>
@@ -9911,7 +9942,7 @@
       <c r="F381" s="4">
         <v>0</v>
       </c>
-      <c r="G381" s="4"/>
+      <c r="G381" s="10"/>
       <c r="H381" s="4"/>
       <c r="J381" s="4"/>
     </row>
@@ -9922,8 +9953,8 @@
       <c r="B382">
         <v>50700000</v>
       </c>
-      <c r="C382" s="9" t="s">
-        <v>719</v>
+      <c r="C382" s="10" t="s">
+        <v>713</v>
       </c>
       <c r="D382" s="4" t="s">
         <v>628</v>
@@ -9934,7 +9965,7 @@
       <c r="F382" s="4">
         <v>0</v>
       </c>
-      <c r="G382" s="4"/>
+      <c r="G382" s="10"/>
       <c r="H382" s="4"/>
       <c r="J382" s="4"/>
     </row>
@@ -9945,8 +9976,8 @@
       <c r="B383">
         <v>50800000</v>
       </c>
-      <c r="C383" s="9" t="s">
-        <v>720</v>
+      <c r="C383" s="10" t="s">
+        <v>714</v>
       </c>
       <c r="D383" s="4" t="s">
         <v>628</v>
@@ -9957,9 +9988,63 @@
       <c r="F383" s="4">
         <v>0</v>
       </c>
-      <c r="G383" s="4"/>
+      <c r="G383" s="10"/>
       <c r="H383" s="4"/>
       <c r="J383" s="4"/>
+    </row>
+    <row r="384" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A384" s="12" t="s">
+        <v>715</v>
+      </c>
+      <c r="B384">
+        <v>42926423</v>
+      </c>
+      <c r="C384" s="9" t="s">
+        <v>718</v>
+      </c>
+      <c r="D384" t="s">
+        <v>245</v>
+      </c>
+      <c r="F384">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="385" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A385" s="12" t="s">
+        <v>716</v>
+      </c>
+      <c r="B385">
+        <v>44429156</v>
+      </c>
+      <c r="C385" s="9" t="s">
+        <v>720</v>
+      </c>
+      <c r="D385" t="s">
+        <v>245</v>
+      </c>
+      <c r="E385" t="s">
+        <v>721</v>
+      </c>
+      <c r="F385">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="386" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A386" s="12" t="s">
+        <v>717</v>
+      </c>
+      <c r="B386">
+        <v>43992532</v>
+      </c>
+      <c r="C386" s="9" t="s">
+        <v>719</v>
+      </c>
+      <c r="D386" t="s">
+        <v>245</v>
+      </c>
+      <c r="F386">
+        <v>20000</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/Services/usuarios.xlsx
+++ b/src/Services/usuarios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\teodepagos\src\Services\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91DDD129-808E-491D-8881-EA31071C7C6B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78AF9465-C318-4972-B3DD-F267930BAA41}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{C3CB8991-09D1-4F35-B378-62C6011C30C3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{C3CB8991-09D1-4F35-B378-62C6011C30C3}"/>
   </bookViews>
   <sheets>
     <sheet name="usuarios" sheetId="1" r:id="rId1"/>
@@ -2607,8 +2607,8 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:J386"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A357" workbookViewId="0">
-      <selection activeCell="F385" sqref="F385"/>
+    <sheetView tabSelected="1" topLeftCell="A352" workbookViewId="0">
+      <selection activeCell="G378" sqref="G378"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2651,7 +2651,7 @@
         <v>245</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="H2" s="1"/>
     </row>
@@ -2669,7 +2669,7 @@
         <v>245</v>
       </c>
       <c r="F3" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="1"/>
@@ -2688,7 +2688,7 @@
         <v>245</v>
       </c>
       <c r="F4" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="1"/>
@@ -2707,7 +2707,7 @@
         <v>245</v>
       </c>
       <c r="F5" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="1"/>
@@ -2726,7 +2726,7 @@
         <v>245</v>
       </c>
       <c r="F6" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="1"/>
@@ -2745,7 +2745,7 @@
         <v>245</v>
       </c>
       <c r="F7" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="1"/>
@@ -2764,7 +2764,7 @@
         <v>245</v>
       </c>
       <c r="F8" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="1"/>
@@ -2783,7 +2783,7 @@
         <v>245</v>
       </c>
       <c r="F9" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="1"/>
@@ -2802,7 +2802,7 @@
         <v>245</v>
       </c>
       <c r="F10" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="1"/>
@@ -2821,7 +2821,7 @@
         <v>245</v>
       </c>
       <c r="F11" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="1"/>
@@ -2840,7 +2840,7 @@
         <v>245</v>
       </c>
       <c r="F12" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="1"/>
@@ -2859,7 +2859,7 @@
         <v>245</v>
       </c>
       <c r="F13" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="1"/>
@@ -2878,7 +2878,7 @@
         <v>245</v>
       </c>
       <c r="F14" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="1"/>
@@ -2897,7 +2897,7 @@
         <v>245</v>
       </c>
       <c r="F15" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="1"/>
@@ -2916,7 +2916,7 @@
         <v>245</v>
       </c>
       <c r="F16" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="1"/>
@@ -2935,7 +2935,7 @@
         <v>245</v>
       </c>
       <c r="F17" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="1"/>
@@ -2954,7 +2954,7 @@
         <v>245</v>
       </c>
       <c r="F18" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="1"/>
@@ -2973,7 +2973,7 @@
         <v>245</v>
       </c>
       <c r="F19" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="1"/>
@@ -2992,7 +2992,7 @@
         <v>245</v>
       </c>
       <c r="F20" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="1"/>
@@ -3011,7 +3011,7 @@
         <v>245</v>
       </c>
       <c r="F21" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="1"/>
@@ -3030,7 +3030,7 @@
         <v>245</v>
       </c>
       <c r="F22" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="1"/>
@@ -3049,7 +3049,7 @@
         <v>245</v>
       </c>
       <c r="F23" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="1"/>
@@ -3068,7 +3068,7 @@
         <v>245</v>
       </c>
       <c r="F24" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="1"/>
@@ -3087,7 +3087,7 @@
         <v>245</v>
       </c>
       <c r="F25" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="1"/>
@@ -3106,7 +3106,7 @@
         <v>245</v>
       </c>
       <c r="F26" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="1"/>
@@ -3125,7 +3125,7 @@
         <v>245</v>
       </c>
       <c r="F27" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="1"/>
@@ -3144,7 +3144,7 @@
         <v>245</v>
       </c>
       <c r="F28" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="1"/>
@@ -3163,7 +3163,7 @@
         <v>245</v>
       </c>
       <c r="F29" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="1"/>
@@ -3182,7 +3182,7 @@
         <v>245</v>
       </c>
       <c r="F30" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G30" s="4"/>
       <c r="H30" s="1"/>
@@ -3201,7 +3201,7 @@
         <v>245</v>
       </c>
       <c r="F31" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G31" s="4"/>
       <c r="H31" s="1"/>
@@ -3220,7 +3220,7 @@
         <v>245</v>
       </c>
       <c r="F32" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G32" s="4"/>
       <c r="H32" s="1"/>
@@ -3239,7 +3239,7 @@
         <v>245</v>
       </c>
       <c r="F33" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G33" s="4"/>
       <c r="H33" s="1"/>
@@ -3258,7 +3258,7 @@
         <v>245</v>
       </c>
       <c r="F34" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G34" s="4"/>
       <c r="H34" s="1"/>
@@ -3277,7 +3277,7 @@
         <v>245</v>
       </c>
       <c r="F35" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G35" s="4"/>
       <c r="H35" s="1"/>
@@ -3296,7 +3296,7 @@
         <v>245</v>
       </c>
       <c r="F36" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G36" s="4"/>
       <c r="H36" s="1"/>
@@ -3315,7 +3315,7 @@
         <v>245</v>
       </c>
       <c r="F37" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G37" s="4"/>
       <c r="H37" s="1"/>
@@ -3334,7 +3334,7 @@
         <v>245</v>
       </c>
       <c r="F38" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G38" s="4"/>
       <c r="H38" s="1"/>
@@ -3353,7 +3353,7 @@
         <v>245</v>
       </c>
       <c r="F39" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G39" s="4"/>
       <c r="H39" s="1"/>
@@ -3372,7 +3372,7 @@
         <v>245</v>
       </c>
       <c r="F40" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G40" s="4"/>
       <c r="H40" s="1"/>
@@ -3391,7 +3391,7 @@
         <v>245</v>
       </c>
       <c r="F41" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G41" s="4"/>
       <c r="H41" s="1"/>
@@ -3410,7 +3410,7 @@
         <v>245</v>
       </c>
       <c r="F42" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G42" s="4"/>
       <c r="H42" s="1"/>
@@ -3429,7 +3429,7 @@
         <v>245</v>
       </c>
       <c r="F43" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G43" s="4"/>
       <c r="H43" s="1"/>
@@ -3448,7 +3448,7 @@
         <v>245</v>
       </c>
       <c r="F44" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G44" s="4"/>
       <c r="H44" s="1"/>
@@ -3467,7 +3467,7 @@
         <v>245</v>
       </c>
       <c r="F45" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G45" s="4"/>
       <c r="H45" s="1"/>
@@ -3486,7 +3486,7 @@
         <v>245</v>
       </c>
       <c r="F46" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G46" s="4"/>
       <c r="H46" s="1"/>
@@ -3505,7 +3505,7 @@
         <v>245</v>
       </c>
       <c r="F47" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G47" s="4"/>
       <c r="H47" s="1"/>
@@ -3524,7 +3524,7 @@
         <v>245</v>
       </c>
       <c r="F48" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G48" s="4"/>
       <c r="H48" s="1"/>
@@ -3543,7 +3543,7 @@
         <v>245</v>
       </c>
       <c r="F49" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G49" s="4"/>
       <c r="H49" s="1"/>
@@ -3562,7 +3562,7 @@
         <v>245</v>
       </c>
       <c r="F50" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G50" s="4"/>
       <c r="H50" s="1"/>
@@ -3581,7 +3581,7 @@
         <v>245</v>
       </c>
       <c r="F51" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G51" s="4"/>
       <c r="H51" s="1"/>
@@ -3600,7 +3600,7 @@
         <v>245</v>
       </c>
       <c r="F52" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G52" s="4"/>
       <c r="H52" s="1"/>
@@ -3619,7 +3619,7 @@
         <v>245</v>
       </c>
       <c r="F53" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G53" s="4"/>
       <c r="H53" s="1"/>
@@ -3638,7 +3638,7 @@
         <v>245</v>
       </c>
       <c r="F54" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G54" s="4"/>
       <c r="H54" s="1"/>
@@ -3657,7 +3657,7 @@
         <v>245</v>
       </c>
       <c r="F55" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G55" s="4"/>
       <c r="H55" s="1"/>
@@ -3676,7 +3676,7 @@
         <v>245</v>
       </c>
       <c r="F56" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G56" s="4"/>
       <c r="H56" s="1"/>
@@ -3695,7 +3695,7 @@
         <v>245</v>
       </c>
       <c r="F57" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G57" s="4"/>
       <c r="H57" s="1"/>
@@ -3714,7 +3714,7 @@
         <v>245</v>
       </c>
       <c r="F58" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G58" s="4"/>
       <c r="H58" s="1"/>
@@ -3733,7 +3733,7 @@
         <v>245</v>
       </c>
       <c r="F59" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G59" s="4"/>
       <c r="H59" s="1"/>
@@ -3752,7 +3752,7 @@
         <v>245</v>
       </c>
       <c r="F60" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G60" s="4"/>
       <c r="H60" s="1"/>
@@ -3771,7 +3771,7 @@
         <v>245</v>
       </c>
       <c r="F61" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G61" s="4"/>
       <c r="H61" s="1"/>
@@ -3790,7 +3790,7 @@
         <v>245</v>
       </c>
       <c r="F62" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G62" s="4"/>
       <c r="H62" s="1"/>
@@ -3809,7 +3809,7 @@
         <v>245</v>
       </c>
       <c r="F63" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G63" s="4"/>
       <c r="H63" s="1"/>
@@ -3828,7 +3828,7 @@
         <v>245</v>
       </c>
       <c r="F64" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G64" s="4"/>
       <c r="H64" s="1"/>
@@ -3847,7 +3847,7 @@
         <v>245</v>
       </c>
       <c r="F65" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G65" s="4"/>
       <c r="H65" s="1"/>
@@ -3866,7 +3866,7 @@
         <v>245</v>
       </c>
       <c r="F66" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G66" s="4"/>
       <c r="H66" s="1"/>
@@ -3885,7 +3885,7 @@
         <v>245</v>
       </c>
       <c r="F67" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G67" s="4"/>
       <c r="H67" s="1"/>
@@ -3904,7 +3904,7 @@
         <v>245</v>
       </c>
       <c r="F68" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G68" s="4"/>
       <c r="H68" s="1"/>
@@ -3923,7 +3923,7 @@
         <v>245</v>
       </c>
       <c r="F69" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G69" s="4"/>
       <c r="H69" s="1"/>
@@ -3942,7 +3942,7 @@
         <v>245</v>
       </c>
       <c r="F70" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G70" s="4"/>
       <c r="H70" s="1"/>
@@ -3961,7 +3961,7 @@
         <v>245</v>
       </c>
       <c r="F71" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G71" s="4"/>
       <c r="H71" s="1"/>
@@ -3980,7 +3980,7 @@
         <v>245</v>
       </c>
       <c r="F72" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G72" s="4"/>
       <c r="H72" s="1"/>
@@ -3999,7 +3999,7 @@
         <v>245</v>
       </c>
       <c r="F73" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G73" s="4"/>
       <c r="H73" s="1"/>
@@ -4018,7 +4018,7 @@
         <v>245</v>
       </c>
       <c r="F74" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G74" s="4"/>
       <c r="H74" s="1"/>
@@ -4037,7 +4037,7 @@
         <v>245</v>
       </c>
       <c r="F75" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G75" s="4"/>
       <c r="H75" s="1"/>
@@ -4056,7 +4056,7 @@
         <v>245</v>
       </c>
       <c r="F76" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G76" s="4"/>
       <c r="H76" s="1"/>
@@ -4075,7 +4075,7 @@
         <v>245</v>
       </c>
       <c r="F77" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G77" s="4"/>
       <c r="H77" s="1"/>
@@ -4094,7 +4094,7 @@
         <v>245</v>
       </c>
       <c r="F78" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G78" s="4"/>
       <c r="H78" s="1"/>
@@ -4113,7 +4113,7 @@
         <v>245</v>
       </c>
       <c r="F79" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G79" s="4"/>
       <c r="H79" s="1"/>
@@ -4132,7 +4132,7 @@
         <v>245</v>
       </c>
       <c r="F80" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G80" s="4"/>
       <c r="H80" s="1"/>
@@ -4151,7 +4151,7 @@
         <v>245</v>
       </c>
       <c r="F81" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G81" s="4"/>
       <c r="H81" s="1"/>
@@ -4170,7 +4170,7 @@
         <v>245</v>
       </c>
       <c r="F82" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G82" s="4"/>
       <c r="H82" s="1"/>
@@ -4189,7 +4189,7 @@
         <v>245</v>
       </c>
       <c r="F83" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G83" s="4"/>
       <c r="H83" s="1"/>
@@ -4208,7 +4208,7 @@
         <v>245</v>
       </c>
       <c r="F84" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G84" s="4"/>
       <c r="H84" s="1"/>
@@ -4227,7 +4227,7 @@
         <v>245</v>
       </c>
       <c r="F85" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G85" s="4"/>
       <c r="H85" s="1"/>
@@ -4246,7 +4246,7 @@
         <v>245</v>
       </c>
       <c r="F86" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G86" s="4"/>
       <c r="H86" s="1"/>
@@ -4265,7 +4265,7 @@
         <v>245</v>
       </c>
       <c r="F87" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G87" s="4"/>
       <c r="H87" s="1"/>
@@ -4284,7 +4284,7 @@
         <v>245</v>
       </c>
       <c r="F88" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G88" s="4"/>
       <c r="H88" s="1"/>
@@ -4303,7 +4303,7 @@
         <v>245</v>
       </c>
       <c r="F89" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G89" s="4"/>
       <c r="H89" s="1"/>
@@ -4322,7 +4322,7 @@
         <v>245</v>
       </c>
       <c r="F90" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G90" s="4"/>
       <c r="H90" s="1"/>
@@ -4341,7 +4341,7 @@
         <v>245</v>
       </c>
       <c r="F91" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G91" s="4"/>
       <c r="H91" s="1"/>
@@ -4360,7 +4360,7 @@
         <v>245</v>
       </c>
       <c r="F92" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G92" s="4"/>
       <c r="H92" s="1"/>
@@ -4379,7 +4379,7 @@
         <v>245</v>
       </c>
       <c r="F93" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G93" s="4"/>
       <c r="H93" s="1"/>
@@ -4398,7 +4398,7 @@
         <v>245</v>
       </c>
       <c r="F94" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G94" s="4"/>
       <c r="H94" s="1"/>
@@ -4417,7 +4417,7 @@
         <v>245</v>
       </c>
       <c r="F95" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G95" s="4"/>
       <c r="H95" s="1"/>
@@ -4436,7 +4436,7 @@
         <v>245</v>
       </c>
       <c r="F96" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G96" s="4"/>
       <c r="H96" s="1"/>
@@ -4455,7 +4455,7 @@
         <v>245</v>
       </c>
       <c r="F97" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G97" s="4"/>
       <c r="H97" s="1"/>
@@ -4474,7 +4474,7 @@
         <v>245</v>
       </c>
       <c r="F98" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G98" s="4"/>
       <c r="H98" s="1"/>
@@ -4493,7 +4493,7 @@
         <v>245</v>
       </c>
       <c r="F99" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G99" s="4"/>
       <c r="H99" s="1"/>
@@ -4512,7 +4512,7 @@
         <v>245</v>
       </c>
       <c r="F100" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G100" s="4"/>
       <c r="H100" s="1"/>
@@ -4531,7 +4531,7 @@
         <v>245</v>
       </c>
       <c r="F101" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G101" s="4"/>
       <c r="H101" s="1"/>
@@ -4550,7 +4550,7 @@
         <v>245</v>
       </c>
       <c r="F102" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G102" s="4"/>
       <c r="H102" s="1"/>
@@ -4569,7 +4569,7 @@
         <v>245</v>
       </c>
       <c r="F103" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G103" s="4"/>
       <c r="H103" s="1"/>
@@ -4588,7 +4588,7 @@
         <v>245</v>
       </c>
       <c r="F104" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G104" s="4"/>
       <c r="H104" s="1"/>
@@ -4607,7 +4607,7 @@
         <v>245</v>
       </c>
       <c r="F105" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G105" s="4"/>
       <c r="H105" s="1"/>
@@ -4626,7 +4626,7 @@
         <v>245</v>
       </c>
       <c r="F106" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G106" s="4"/>
       <c r="H106" s="1"/>
@@ -4645,7 +4645,7 @@
         <v>245</v>
       </c>
       <c r="F107" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G107" s="4"/>
       <c r="H107" s="1"/>
@@ -4664,7 +4664,7 @@
         <v>245</v>
       </c>
       <c r="F108" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G108" s="4"/>
       <c r="H108" s="1"/>
@@ -4683,7 +4683,7 @@
         <v>245</v>
       </c>
       <c r="F109" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G109" s="4"/>
       <c r="H109" s="1"/>
@@ -4702,7 +4702,7 @@
         <v>245</v>
       </c>
       <c r="F110" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G110" s="4"/>
       <c r="H110" s="1"/>
@@ -4721,7 +4721,7 @@
         <v>245</v>
       </c>
       <c r="F111" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G111" s="4"/>
       <c r="H111" s="1"/>
@@ -4740,7 +4740,7 @@
         <v>245</v>
       </c>
       <c r="F112" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G112" s="4"/>
       <c r="H112" s="1"/>
@@ -4759,7 +4759,7 @@
         <v>245</v>
       </c>
       <c r="F113" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G113" s="4"/>
       <c r="H113" s="1"/>
@@ -4778,7 +4778,7 @@
         <v>245</v>
       </c>
       <c r="F114" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G114" s="4"/>
       <c r="H114" s="1"/>
@@ -4797,7 +4797,7 @@
         <v>245</v>
       </c>
       <c r="F115" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G115" s="4"/>
       <c r="H115" s="1"/>
@@ -4816,7 +4816,7 @@
         <v>245</v>
       </c>
       <c r="F116" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G116" s="4"/>
       <c r="H116" s="1"/>
@@ -4835,7 +4835,7 @@
         <v>245</v>
       </c>
       <c r="F117" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G117" s="4"/>
       <c r="H117" s="1"/>
@@ -4854,7 +4854,7 @@
         <v>245</v>
       </c>
       <c r="F118" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G118" s="4"/>
       <c r="H118" s="1"/>
@@ -4873,7 +4873,7 @@
         <v>245</v>
       </c>
       <c r="F119" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G119" s="4"/>
       <c r="H119" s="1"/>
@@ -4892,7 +4892,7 @@
         <v>245</v>
       </c>
       <c r="F120" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G120" s="4"/>
       <c r="H120" s="1"/>
@@ -4911,7 +4911,7 @@
         <v>245</v>
       </c>
       <c r="F121" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G121" s="4"/>
       <c r="H121" s="1"/>
@@ -4930,7 +4930,7 @@
         <v>245</v>
       </c>
       <c r="F122" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G122" s="4"/>
       <c r="H122" s="1"/>
@@ -4949,7 +4949,7 @@
         <v>245</v>
       </c>
       <c r="F123" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G123" s="4"/>
       <c r="H123" s="1"/>
@@ -4968,7 +4968,7 @@
         <v>245</v>
       </c>
       <c r="F124" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G124" s="4"/>
       <c r="H124" s="1"/>
@@ -4987,7 +4987,7 @@
         <v>245</v>
       </c>
       <c r="F125" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G125" s="4"/>
       <c r="H125" s="1"/>
@@ -5006,7 +5006,7 @@
         <v>245</v>
       </c>
       <c r="F126" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G126" s="4"/>
       <c r="H126" s="1"/>
@@ -5025,7 +5025,7 @@
         <v>245</v>
       </c>
       <c r="F127" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G127" s="4"/>
       <c r="H127" s="1"/>
@@ -5044,7 +5044,7 @@
         <v>245</v>
       </c>
       <c r="F128" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G128" s="4"/>
       <c r="H128" s="1"/>
@@ -5063,7 +5063,7 @@
         <v>245</v>
       </c>
       <c r="F129" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G129" s="4"/>
       <c r="H129" s="1"/>
@@ -5082,7 +5082,7 @@
         <v>245</v>
       </c>
       <c r="F130" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G130" s="4"/>
       <c r="H130" s="1"/>
@@ -5101,7 +5101,7 @@
         <v>245</v>
       </c>
       <c r="F131" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G131" s="4"/>
       <c r="H131" s="1"/>
@@ -5120,7 +5120,7 @@
         <v>245</v>
       </c>
       <c r="F132" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G132" s="4"/>
       <c r="H132" s="1"/>
@@ -5139,7 +5139,7 @@
         <v>245</v>
       </c>
       <c r="F133" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G133" s="4"/>
       <c r="H133" s="1"/>
@@ -5158,7 +5158,7 @@
         <v>245</v>
       </c>
       <c r="F134" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G134" s="4"/>
       <c r="H134" s="1"/>
@@ -5177,7 +5177,7 @@
         <v>245</v>
       </c>
       <c r="F135" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G135" s="4"/>
       <c r="H135" s="1"/>
@@ -5196,7 +5196,7 @@
         <v>245</v>
       </c>
       <c r="F136" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G136" s="4"/>
       <c r="H136" s="1"/>
@@ -5215,7 +5215,7 @@
         <v>245</v>
       </c>
       <c r="F137" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G137" s="4"/>
       <c r="H137" s="1"/>
@@ -5234,7 +5234,7 @@
         <v>245</v>
       </c>
       <c r="F138" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G138" s="4"/>
       <c r="H138" s="1"/>
@@ -5253,7 +5253,7 @@
         <v>245</v>
       </c>
       <c r="F139" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G139" s="4"/>
       <c r="H139" s="1"/>
@@ -5272,7 +5272,7 @@
         <v>245</v>
       </c>
       <c r="F140" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G140" s="4"/>
       <c r="H140" s="1"/>
@@ -5291,7 +5291,7 @@
         <v>245</v>
       </c>
       <c r="F141" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G141" s="4"/>
       <c r="H141" s="1"/>
@@ -5310,7 +5310,7 @@
         <v>245</v>
       </c>
       <c r="F142" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G142" s="4"/>
       <c r="H142" s="1"/>
@@ -5329,7 +5329,7 @@
         <v>245</v>
       </c>
       <c r="F143" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G143" s="4"/>
       <c r="H143" s="1"/>
@@ -5348,7 +5348,7 @@
         <v>245</v>
       </c>
       <c r="F144" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G144" s="4"/>
       <c r="H144" s="1"/>
@@ -5367,7 +5367,7 @@
         <v>245</v>
       </c>
       <c r="F145" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G145" s="4"/>
       <c r="H145" s="1"/>
@@ -5386,7 +5386,7 @@
         <v>245</v>
       </c>
       <c r="F146" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G146" s="4"/>
       <c r="H146" s="1"/>
@@ -5405,7 +5405,7 @@
         <v>245</v>
       </c>
       <c r="F147" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G147" s="4"/>
       <c r="H147" s="1"/>
@@ -5424,7 +5424,7 @@
         <v>245</v>
       </c>
       <c r="F148" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G148" s="4"/>
       <c r="H148" s="1"/>
@@ -5443,7 +5443,7 @@
         <v>245</v>
       </c>
       <c r="F149" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G149" s="4"/>
       <c r="H149" s="1"/>
@@ -5462,7 +5462,7 @@
         <v>245</v>
       </c>
       <c r="F150" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G150" s="4"/>
       <c r="H150" s="1"/>
@@ -5481,7 +5481,7 @@
         <v>245</v>
       </c>
       <c r="F151" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G151" s="4"/>
       <c r="H151" s="1"/>
@@ -5500,7 +5500,7 @@
         <v>245</v>
       </c>
       <c r="F152" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G152" s="4"/>
       <c r="H152" s="1"/>
@@ -5519,7 +5519,7 @@
         <v>245</v>
       </c>
       <c r="F153" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G153" s="4"/>
       <c r="H153" s="1"/>
@@ -5538,7 +5538,7 @@
         <v>245</v>
       </c>
       <c r="F154" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G154" s="4"/>
       <c r="H154" s="1"/>
@@ -5557,7 +5557,7 @@
         <v>245</v>
       </c>
       <c r="F155" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G155" s="4"/>
       <c r="H155" s="1"/>
@@ -5576,7 +5576,7 @@
         <v>245</v>
       </c>
       <c r="F156" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G156" s="4"/>
       <c r="H156" s="1"/>
@@ -5595,7 +5595,7 @@
         <v>245</v>
       </c>
       <c r="F157" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G157" s="4"/>
       <c r="H157" s="1"/>
@@ -5614,7 +5614,7 @@
         <v>245</v>
       </c>
       <c r="F158" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G158" s="4"/>
       <c r="H158" s="1"/>
@@ -5633,7 +5633,7 @@
         <v>245</v>
       </c>
       <c r="F159" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G159" s="4"/>
       <c r="H159" s="1"/>
@@ -5652,7 +5652,7 @@
         <v>245</v>
       </c>
       <c r="F160" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G160" s="4"/>
       <c r="H160" s="1"/>
@@ -5671,7 +5671,7 @@
         <v>245</v>
       </c>
       <c r="F161" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G161" s="4"/>
       <c r="H161" s="1"/>
@@ -5690,7 +5690,7 @@
         <v>245</v>
       </c>
       <c r="F162" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G162" s="4"/>
       <c r="H162" s="1"/>
@@ -5709,7 +5709,7 @@
         <v>245</v>
       </c>
       <c r="F163" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G163" s="4"/>
       <c r="H163" s="1"/>
@@ -5728,7 +5728,7 @@
         <v>245</v>
       </c>
       <c r="F164" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G164" s="4"/>
       <c r="H164" s="1"/>
@@ -5747,7 +5747,7 @@
         <v>245</v>
       </c>
       <c r="F165" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G165" s="4"/>
       <c r="H165" s="1"/>
@@ -5766,7 +5766,7 @@
         <v>245</v>
       </c>
       <c r="F166" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G166" s="4"/>
       <c r="H166" s="1"/>
@@ -5785,7 +5785,7 @@
         <v>245</v>
       </c>
       <c r="F167" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G167" s="4"/>
       <c r="H167" s="1"/>
@@ -5804,7 +5804,7 @@
         <v>245</v>
       </c>
       <c r="F168" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G168" s="4"/>
       <c r="H168" s="1"/>
@@ -5823,7 +5823,7 @@
         <v>245</v>
       </c>
       <c r="F169" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G169" s="4"/>
       <c r="H169" s="1"/>
@@ -5842,7 +5842,7 @@
         <v>245</v>
       </c>
       <c r="F170" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G170" s="4"/>
       <c r="H170" s="1"/>
@@ -5861,7 +5861,7 @@
         <v>245</v>
       </c>
       <c r="F171" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G171" s="4"/>
       <c r="H171" s="1"/>
@@ -5880,7 +5880,7 @@
         <v>245</v>
       </c>
       <c r="F172" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G172" s="4"/>
       <c r="H172" s="1"/>
@@ -5899,7 +5899,7 @@
         <v>245</v>
       </c>
       <c r="F173" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G173" s="4"/>
       <c r="H173" s="1"/>
@@ -5918,7 +5918,7 @@
         <v>245</v>
       </c>
       <c r="F174" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G174" s="4"/>
       <c r="H174" s="1"/>
@@ -5937,7 +5937,7 @@
         <v>245</v>
       </c>
       <c r="F175" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G175" s="4"/>
       <c r="H175" s="1"/>
@@ -5956,7 +5956,7 @@
         <v>245</v>
       </c>
       <c r="F176" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G176" s="4"/>
       <c r="H176" s="1"/>
@@ -5975,7 +5975,7 @@
         <v>245</v>
       </c>
       <c r="F177" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G177" s="4"/>
       <c r="H177" s="1"/>
@@ -5994,7 +5994,7 @@
         <v>245</v>
       </c>
       <c r="F178" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G178" s="4"/>
       <c r="H178" s="1"/>
@@ -6013,7 +6013,7 @@
         <v>245</v>
       </c>
       <c r="F179" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G179" s="4"/>
       <c r="H179" s="1"/>
@@ -6032,7 +6032,7 @@
         <v>245</v>
       </c>
       <c r="F180" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G180" s="4"/>
       <c r="H180" s="1"/>
@@ -6051,7 +6051,7 @@
         <v>245</v>
       </c>
       <c r="F181" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G181" s="4"/>
       <c r="H181" s="1"/>
@@ -6070,7 +6070,7 @@
         <v>245</v>
       </c>
       <c r="F182" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G182" s="4"/>
       <c r="H182" s="1"/>
@@ -6089,7 +6089,7 @@
         <v>245</v>
       </c>
       <c r="F183" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G183" s="4"/>
       <c r="H183" s="1"/>
@@ -6108,7 +6108,7 @@
         <v>245</v>
       </c>
       <c r="F184" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G184" s="4"/>
       <c r="H184" s="1"/>
@@ -6127,7 +6127,7 @@
         <v>245</v>
       </c>
       <c r="F185" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G185" s="4"/>
       <c r="H185" s="1"/>
@@ -6146,7 +6146,7 @@
         <v>245</v>
       </c>
       <c r="F186" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G186" s="4"/>
       <c r="H186" s="1"/>
@@ -6165,7 +6165,7 @@
         <v>245</v>
       </c>
       <c r="F187" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G187" s="4"/>
       <c r="H187" s="1"/>
@@ -6184,7 +6184,7 @@
         <v>245</v>
       </c>
       <c r="F188" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G188" s="4"/>
       <c r="H188" s="1"/>
@@ -6203,7 +6203,7 @@
         <v>245</v>
       </c>
       <c r="F189" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G189" s="4"/>
       <c r="H189" s="1"/>
@@ -6222,7 +6222,7 @@
         <v>245</v>
       </c>
       <c r="F190" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G190" s="4"/>
       <c r="H190" s="1"/>
@@ -6241,7 +6241,7 @@
         <v>245</v>
       </c>
       <c r="F191" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G191" s="4"/>
       <c r="H191" s="1"/>
@@ -6260,7 +6260,7 @@
         <v>245</v>
       </c>
       <c r="F192" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G192" s="4"/>
       <c r="H192" s="1"/>
@@ -6279,7 +6279,7 @@
         <v>245</v>
       </c>
       <c r="F193" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G193" s="4"/>
       <c r="H193" s="1"/>
@@ -6298,7 +6298,7 @@
         <v>245</v>
       </c>
       <c r="F194" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G194" s="4"/>
       <c r="H194" s="1"/>
@@ -6317,7 +6317,7 @@
         <v>245</v>
       </c>
       <c r="F195" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G195" s="4"/>
       <c r="H195" s="1"/>
@@ -6336,7 +6336,7 @@
         <v>245</v>
       </c>
       <c r="F196" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G196" s="4"/>
       <c r="H196" s="1"/>
@@ -6355,7 +6355,7 @@
         <v>245</v>
       </c>
       <c r="F197" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G197" s="4"/>
       <c r="H197" s="1"/>
@@ -6374,7 +6374,7 @@
         <v>245</v>
       </c>
       <c r="F198" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G198" s="4"/>
       <c r="H198" s="1"/>
@@ -6393,7 +6393,7 @@
         <v>245</v>
       </c>
       <c r="F199" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G199" s="4"/>
       <c r="H199" s="1"/>
@@ -6412,7 +6412,7 @@
         <v>245</v>
       </c>
       <c r="F200" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G200" s="4"/>
       <c r="H200" s="1"/>
@@ -6431,7 +6431,7 @@
         <v>245</v>
       </c>
       <c r="F201" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G201" s="4"/>
       <c r="H201" s="1"/>
@@ -6450,7 +6450,7 @@
         <v>245</v>
       </c>
       <c r="F202" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G202" s="4"/>
       <c r="H202" s="1"/>
@@ -6469,7 +6469,7 @@
         <v>245</v>
       </c>
       <c r="F203" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G203" s="4"/>
       <c r="H203" s="1"/>
@@ -6488,7 +6488,7 @@
         <v>245</v>
       </c>
       <c r="F204" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G204" s="4"/>
       <c r="H204" s="1"/>
@@ -6507,7 +6507,7 @@
         <v>245</v>
       </c>
       <c r="F205" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G205" s="4"/>
       <c r="H205" s="1"/>
@@ -6526,7 +6526,7 @@
         <v>245</v>
       </c>
       <c r="F206" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G206" s="4"/>
       <c r="H206" s="1"/>
@@ -6545,7 +6545,7 @@
         <v>245</v>
       </c>
       <c r="F207" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G207" s="4"/>
       <c r="H207" s="1"/>
@@ -6564,7 +6564,7 @@
         <v>245</v>
       </c>
       <c r="F208" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G208" s="4"/>
       <c r="H208" s="1"/>
@@ -6583,7 +6583,7 @@
         <v>245</v>
       </c>
       <c r="F209" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G209" s="4"/>
       <c r="H209" s="1"/>
@@ -6602,7 +6602,7 @@
         <v>245</v>
       </c>
       <c r="F210" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G210" s="4"/>
       <c r="H210" s="1"/>
@@ -6621,7 +6621,7 @@
         <v>245</v>
       </c>
       <c r="F211" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G211" s="4"/>
       <c r="H211" s="1"/>
@@ -6640,7 +6640,7 @@
         <v>245</v>
       </c>
       <c r="F212" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G212" s="4"/>
       <c r="H212" s="1"/>
@@ -6659,7 +6659,7 @@
         <v>245</v>
       </c>
       <c r="F213" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G213" s="4"/>
       <c r="H213" s="1"/>
@@ -6678,7 +6678,7 @@
         <v>245</v>
       </c>
       <c r="F214" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G214" s="4"/>
       <c r="H214" s="1"/>
@@ -6697,7 +6697,7 @@
         <v>245</v>
       </c>
       <c r="F215" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G215" s="4"/>
       <c r="H215" s="1"/>
@@ -6716,7 +6716,7 @@
         <v>245</v>
       </c>
       <c r="F216" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G216" s="4"/>
       <c r="H216" s="1"/>
@@ -6735,7 +6735,7 @@
         <v>245</v>
       </c>
       <c r="F217" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G217" s="4"/>
       <c r="H217" s="1"/>
@@ -6754,7 +6754,7 @@
         <v>245</v>
       </c>
       <c r="F218" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G218" s="4"/>
       <c r="H218" s="1"/>
@@ -6773,7 +6773,7 @@
         <v>245</v>
       </c>
       <c r="F219" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G219" s="4"/>
       <c r="H219" s="1"/>
@@ -6792,7 +6792,7 @@
         <v>245</v>
       </c>
       <c r="F220" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G220" s="4"/>
       <c r="H220" s="1"/>
@@ -6811,7 +6811,7 @@
         <v>245</v>
       </c>
       <c r="F221" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G221" s="4"/>
       <c r="H221" s="1"/>
@@ -6830,7 +6830,7 @@
         <v>245</v>
       </c>
       <c r="F222" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G222" s="4"/>
       <c r="H222" s="1"/>
@@ -6849,7 +6849,7 @@
         <v>245</v>
       </c>
       <c r="F223" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G223" s="4"/>
       <c r="H223" s="1"/>
@@ -6868,7 +6868,7 @@
         <v>245</v>
       </c>
       <c r="F224" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G224" s="4"/>
       <c r="H224" s="1"/>
@@ -6887,7 +6887,7 @@
         <v>245</v>
       </c>
       <c r="F225" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G225" s="4"/>
       <c r="H225" s="1"/>
@@ -6906,7 +6906,7 @@
         <v>245</v>
       </c>
       <c r="F226" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G226" s="4"/>
       <c r="H226" s="1"/>
@@ -6925,7 +6925,7 @@
         <v>245</v>
       </c>
       <c r="F227" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G227" s="4"/>
       <c r="H227" s="1"/>
@@ -6944,7 +6944,7 @@
         <v>245</v>
       </c>
       <c r="F228" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G228" s="4"/>
       <c r="H228" s="1"/>
@@ -6963,7 +6963,7 @@
         <v>245</v>
       </c>
       <c r="F229" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G229" s="4"/>
       <c r="H229" s="1"/>
@@ -6982,7 +6982,7 @@
         <v>245</v>
       </c>
       <c r="F230" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G230" s="4"/>
       <c r="H230" s="1"/>
@@ -7001,7 +7001,7 @@
         <v>245</v>
       </c>
       <c r="F231" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G231" s="4"/>
       <c r="H231" s="1"/>
@@ -7020,7 +7020,7 @@
         <v>245</v>
       </c>
       <c r="F232" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G232" s="4"/>
       <c r="H232" s="1"/>
@@ -7039,7 +7039,7 @@
         <v>245</v>
       </c>
       <c r="F233" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G233" s="4"/>
       <c r="H233" s="1"/>
@@ -7058,7 +7058,7 @@
         <v>245</v>
       </c>
       <c r="F234" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G234" s="4"/>
       <c r="H234" s="1"/>
@@ -7077,7 +7077,7 @@
         <v>245</v>
       </c>
       <c r="F235" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G235" s="4"/>
       <c r="H235" s="1"/>
@@ -7096,7 +7096,7 @@
         <v>245</v>
       </c>
       <c r="F236" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G236" s="4"/>
       <c r="H236" s="1"/>
@@ -7115,7 +7115,7 @@
         <v>245</v>
       </c>
       <c r="F237" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G237" s="4"/>
       <c r="H237" s="1"/>
@@ -7134,7 +7134,7 @@
         <v>245</v>
       </c>
       <c r="F238" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G238" s="4"/>
       <c r="H238" s="1"/>
@@ -7153,7 +7153,7 @@
         <v>245</v>
       </c>
       <c r="F239" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G239" s="4"/>
       <c r="H239" s="1"/>
@@ -7172,7 +7172,7 @@
         <v>245</v>
       </c>
       <c r="F240" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G240" s="4"/>
       <c r="H240" s="1"/>
@@ -7191,7 +7191,7 @@
         <v>245</v>
       </c>
       <c r="F241" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G241" s="4"/>
       <c r="H241" s="1"/>
@@ -7210,7 +7210,7 @@
         <v>245</v>
       </c>
       <c r="F242" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G242" s="4"/>
       <c r="H242" s="1"/>
@@ -7229,7 +7229,7 @@
         <v>245</v>
       </c>
       <c r="F243" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G243" s="4"/>
       <c r="H243" s="1"/>
@@ -7248,7 +7248,7 @@
         <v>245</v>
       </c>
       <c r="F244" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G244" s="4"/>
       <c r="H244" s="1"/>
@@ -7267,7 +7267,7 @@
         <v>245</v>
       </c>
       <c r="F245" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G245" s="4"/>
       <c r="H245" s="1"/>
@@ -7286,7 +7286,7 @@
         <v>245</v>
       </c>
       <c r="F246" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G246" s="4"/>
       <c r="H246" s="1"/>
@@ -7305,7 +7305,7 @@
         <v>245</v>
       </c>
       <c r="F247" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G247" s="4"/>
       <c r="H247" s="1"/>
@@ -7324,7 +7324,7 @@
         <v>245</v>
       </c>
       <c r="F248" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G248" s="4"/>
       <c r="H248" s="1"/>
@@ -7343,7 +7343,7 @@
         <v>245</v>
       </c>
       <c r="F249" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G249" s="4"/>
       <c r="H249" s="1"/>
@@ -7362,7 +7362,7 @@
         <v>245</v>
       </c>
       <c r="F250" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G250" s="4"/>
       <c r="H250" s="1"/>
@@ -7381,7 +7381,7 @@
         <v>245</v>
       </c>
       <c r="F251" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G251" s="4"/>
       <c r="H251" s="1"/>
@@ -7400,7 +7400,7 @@
         <v>245</v>
       </c>
       <c r="F252" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G252" s="4"/>
       <c r="H252" s="1"/>
@@ -7419,7 +7419,7 @@
         <v>245</v>
       </c>
       <c r="F253" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G253" s="4"/>
       <c r="H253" s="1"/>
@@ -7438,7 +7438,7 @@
         <v>245</v>
       </c>
       <c r="F254" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G254" s="4"/>
       <c r="H254" s="1"/>
@@ -7457,7 +7457,7 @@
         <v>245</v>
       </c>
       <c r="F255" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G255" s="4"/>
       <c r="H255" s="1"/>
@@ -7476,7 +7476,7 @@
         <v>245</v>
       </c>
       <c r="F256" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G256" s="4"/>
       <c r="H256" s="1"/>
@@ -7495,7 +7495,7 @@
         <v>245</v>
       </c>
       <c r="F257" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G257" s="4"/>
       <c r="H257" s="1"/>
@@ -7514,7 +7514,7 @@
         <v>245</v>
       </c>
       <c r="F258" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G258" s="4"/>
       <c r="H258" s="1"/>
@@ -7533,7 +7533,7 @@
         <v>245</v>
       </c>
       <c r="F259" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G259" s="4"/>
       <c r="H259" s="1"/>
@@ -7552,7 +7552,7 @@
         <v>245</v>
       </c>
       <c r="F260" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G260" s="4"/>
       <c r="H260" s="1"/>
@@ -7571,7 +7571,7 @@
         <v>245</v>
       </c>
       <c r="F261" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G261" s="4"/>
       <c r="H261" s="1"/>
@@ -7590,7 +7590,7 @@
         <v>245</v>
       </c>
       <c r="F262" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G262" s="4"/>
       <c r="H262" s="1"/>
@@ -7609,7 +7609,7 @@
         <v>245</v>
       </c>
       <c r="F263" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G263" s="4"/>
       <c r="H263" s="1"/>
@@ -7628,7 +7628,7 @@
         <v>245</v>
       </c>
       <c r="F264" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G264" s="4"/>
       <c r="H264" s="1"/>
@@ -7647,7 +7647,7 @@
         <v>245</v>
       </c>
       <c r="F265" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G265" s="4"/>
       <c r="H265" s="1"/>
@@ -7666,7 +7666,7 @@
         <v>245</v>
       </c>
       <c r="F266" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G266" s="4"/>
       <c r="H266" s="1"/>
@@ -7685,7 +7685,7 @@
         <v>245</v>
       </c>
       <c r="F267" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G267" s="4"/>
       <c r="H267" s="1"/>
@@ -7704,7 +7704,7 @@
         <v>245</v>
       </c>
       <c r="F268" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G268" s="4"/>
       <c r="H268" s="1"/>
@@ -7723,7 +7723,7 @@
         <v>245</v>
       </c>
       <c r="F269" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G269" s="4"/>
       <c r="H269" s="1"/>
@@ -7742,7 +7742,7 @@
         <v>245</v>
       </c>
       <c r="F270" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G270" s="4"/>
       <c r="H270" s="1"/>
@@ -7761,7 +7761,7 @@
         <v>245</v>
       </c>
       <c r="F271" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G271" s="4"/>
       <c r="H271" s="1"/>
@@ -7780,7 +7780,7 @@
         <v>245</v>
       </c>
       <c r="F272" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G272" s="4"/>
       <c r="H272" s="1"/>
@@ -7799,7 +7799,7 @@
         <v>245</v>
       </c>
       <c r="F273" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G273" s="4"/>
       <c r="H273" s="1"/>
@@ -7818,7 +7818,7 @@
         <v>245</v>
       </c>
       <c r="F274" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G274" s="4"/>
       <c r="H274" s="1"/>
@@ -7837,7 +7837,7 @@
         <v>245</v>
       </c>
       <c r="F275" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G275" s="4"/>
       <c r="H275" s="1"/>
@@ -7856,7 +7856,7 @@
         <v>245</v>
       </c>
       <c r="F276" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G276" s="4"/>
       <c r="H276" s="1"/>
@@ -7875,7 +7875,7 @@
         <v>245</v>
       </c>
       <c r="F277" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G277" s="4"/>
       <c r="H277" s="1"/>
@@ -7894,7 +7894,7 @@
         <v>245</v>
       </c>
       <c r="F278" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G278" s="4"/>
       <c r="H278" s="1"/>
@@ -7913,7 +7913,7 @@
         <v>245</v>
       </c>
       <c r="F279" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G279" s="4"/>
       <c r="H279" s="1"/>
@@ -7932,7 +7932,7 @@
         <v>245</v>
       </c>
       <c r="F280" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G280" s="4"/>
       <c r="H280" s="1"/>
@@ -7951,7 +7951,7 @@
         <v>245</v>
       </c>
       <c r="F281" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G281" s="4"/>
       <c r="H281" s="1"/>
@@ -7970,7 +7970,7 @@
         <v>245</v>
       </c>
       <c r="F282" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G282" s="4"/>
       <c r="H282" s="1"/>
@@ -7989,7 +7989,7 @@
         <v>245</v>
       </c>
       <c r="F283" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G283" s="4"/>
       <c r="H283" s="1"/>
@@ -8008,7 +8008,7 @@
         <v>245</v>
       </c>
       <c r="F284" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G284" s="4"/>
       <c r="H284" s="1"/>
@@ -8027,7 +8027,7 @@
         <v>245</v>
       </c>
       <c r="F285" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G285" s="4"/>
       <c r="H285" s="1"/>
@@ -8046,7 +8046,7 @@
         <v>245</v>
       </c>
       <c r="F286" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G286" s="4"/>
       <c r="H286" s="1"/>
@@ -8065,7 +8065,7 @@
         <v>245</v>
       </c>
       <c r="F287" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G287" s="4"/>
       <c r="H287" s="1"/>
@@ -8084,7 +8084,7 @@
         <v>245</v>
       </c>
       <c r="F288" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G288" s="4"/>
       <c r="H288" s="1"/>
@@ -8103,7 +8103,7 @@
         <v>245</v>
       </c>
       <c r="F289" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G289" s="4"/>
       <c r="H289" s="1"/>
@@ -8122,7 +8122,7 @@
         <v>245</v>
       </c>
       <c r="F290" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G290" s="4"/>
       <c r="H290" s="1"/>
@@ -8141,7 +8141,7 @@
         <v>245</v>
       </c>
       <c r="F291" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G291" s="4"/>
       <c r="H291" s="1"/>
@@ -8160,7 +8160,7 @@
         <v>245</v>
       </c>
       <c r="F292" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G292" s="4"/>
       <c r="H292" s="1"/>
@@ -8179,7 +8179,7 @@
         <v>245</v>
       </c>
       <c r="F293" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G293" s="4"/>
       <c r="H293" s="1"/>
@@ -8198,7 +8198,7 @@
         <v>245</v>
       </c>
       <c r="F294" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G294" s="4"/>
       <c r="H294" s="1"/>
@@ -8217,7 +8217,7 @@
         <v>245</v>
       </c>
       <c r="F295" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G295" s="4"/>
       <c r="H295" s="1"/>
@@ -8236,7 +8236,7 @@
         <v>245</v>
       </c>
       <c r="F296" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G296" s="4"/>
       <c r="H296" s="1"/>
@@ -8255,7 +8255,7 @@
         <v>245</v>
       </c>
       <c r="F297" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G297" s="4"/>
       <c r="H297" s="1"/>
@@ -8274,7 +8274,7 @@
         <v>245</v>
       </c>
       <c r="F298" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G298" s="4"/>
       <c r="H298" s="1"/>
@@ -8293,7 +8293,7 @@
         <v>245</v>
       </c>
       <c r="F299" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G299" s="4"/>
       <c r="H299" s="1"/>
@@ -8312,7 +8312,7 @@
         <v>245</v>
       </c>
       <c r="F300" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G300" s="4"/>
       <c r="H300" s="1"/>
@@ -8331,7 +8331,7 @@
         <v>245</v>
       </c>
       <c r="F301" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G301" s="4"/>
       <c r="H301" s="1"/>
@@ -8350,7 +8350,7 @@
         <v>245</v>
       </c>
       <c r="F302" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G302" s="4"/>
       <c r="H302" s="1"/>
@@ -8369,7 +8369,7 @@
         <v>245</v>
       </c>
       <c r="F303" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G303" s="4"/>
       <c r="H303" s="1"/>
@@ -8388,7 +8388,7 @@
         <v>245</v>
       </c>
       <c r="F304" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G304" s="4"/>
       <c r="H304" s="1"/>
@@ -8407,7 +8407,7 @@
         <v>245</v>
       </c>
       <c r="F305" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G305" s="4"/>
       <c r="H305" s="1"/>
@@ -8426,7 +8426,7 @@
         <v>245</v>
       </c>
       <c r="F306" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G306" s="4"/>
       <c r="H306" s="1"/>
@@ -8445,7 +8445,7 @@
         <v>245</v>
       </c>
       <c r="F307" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G307" s="4"/>
       <c r="H307" s="1"/>
@@ -8464,7 +8464,7 @@
         <v>245</v>
       </c>
       <c r="F308" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G308" s="4"/>
       <c r="H308" s="1"/>
@@ -8483,7 +8483,7 @@
         <v>245</v>
       </c>
       <c r="F309" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G309" s="4"/>
       <c r="H309" s="1"/>
@@ -8502,7 +8502,7 @@
         <v>245</v>
       </c>
       <c r="F310" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G310" s="4"/>
       <c r="H310" s="1"/>
@@ -8521,7 +8521,7 @@
         <v>245</v>
       </c>
       <c r="F311" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G311" s="4"/>
       <c r="H311" s="1"/>
@@ -8540,7 +8540,7 @@
         <v>245</v>
       </c>
       <c r="F312" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G312" s="4"/>
       <c r="H312" s="1"/>
@@ -8559,7 +8559,7 @@
         <v>245</v>
       </c>
       <c r="F313" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G313" s="4"/>
       <c r="H313" s="1"/>
@@ -8578,7 +8578,7 @@
         <v>245</v>
       </c>
       <c r="F314" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G314" s="4"/>
       <c r="H314" s="1"/>
@@ -8597,7 +8597,7 @@
         <v>245</v>
       </c>
       <c r="F315" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G315" s="4"/>
       <c r="H315" s="1"/>
@@ -8616,7 +8616,7 @@
         <v>245</v>
       </c>
       <c r="F316" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G316" s="4"/>
       <c r="H316" s="1"/>
@@ -8635,7 +8635,7 @@
         <v>245</v>
       </c>
       <c r="F317" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G317" s="4"/>
       <c r="H317" s="1"/>
@@ -8654,7 +8654,7 @@
         <v>245</v>
       </c>
       <c r="F318" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G318" s="4"/>
       <c r="H318" s="1"/>
@@ -8673,7 +8673,7 @@
         <v>245</v>
       </c>
       <c r="F319" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G319" s="4"/>
       <c r="H319" s="1"/>
@@ -8692,7 +8692,7 @@
         <v>245</v>
       </c>
       <c r="F320" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G320" s="4"/>
       <c r="H320" s="1"/>
@@ -8711,7 +8711,7 @@
         <v>245</v>
       </c>
       <c r="F321" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G321" s="4"/>
       <c r="H321" s="1"/>
@@ -8730,7 +8730,7 @@
         <v>245</v>
       </c>
       <c r="F322" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G322" s="4"/>
       <c r="H322" s="1"/>
@@ -8749,7 +8749,7 @@
         <v>245</v>
       </c>
       <c r="F323" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G323" s="4"/>
       <c r="H323" s="1"/>
@@ -8768,7 +8768,7 @@
         <v>245</v>
       </c>
       <c r="F324" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G324" s="4"/>
       <c r="H324" s="1"/>
@@ -8787,7 +8787,7 @@
         <v>245</v>
       </c>
       <c r="F325" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G325" s="4"/>
       <c r="H325" s="1"/>
@@ -8806,7 +8806,7 @@
         <v>245</v>
       </c>
       <c r="F326" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G326" s="4"/>
       <c r="H326" s="1"/>
@@ -8825,7 +8825,7 @@
         <v>245</v>
       </c>
       <c r="F327" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G327" s="4"/>
       <c r="H327" s="1"/>
@@ -8844,7 +8844,7 @@
         <v>245</v>
       </c>
       <c r="F328" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G328" s="4"/>
       <c r="H328" s="1"/>
@@ -8863,7 +8863,7 @@
         <v>245</v>
       </c>
       <c r="F329" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G329" s="4"/>
       <c r="H329" s="1"/>
@@ -8882,7 +8882,7 @@
         <v>245</v>
       </c>
       <c r="F330" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G330" s="4"/>
       <c r="H330" s="1"/>
@@ -8901,7 +8901,7 @@
         <v>245</v>
       </c>
       <c r="F331" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G331" s="4"/>
       <c r="H331" s="1"/>
@@ -8920,7 +8920,7 @@
         <v>245</v>
       </c>
       <c r="F332" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G332" s="4"/>
       <c r="H332" s="1"/>
@@ -8939,7 +8939,7 @@
         <v>245</v>
       </c>
       <c r="F333" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G333" s="4"/>
       <c r="H333" s="1"/>
@@ -8958,7 +8958,7 @@
         <v>245</v>
       </c>
       <c r="F334" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G334" s="4"/>
       <c r="H334" s="1"/>
@@ -8977,7 +8977,7 @@
         <v>245</v>
       </c>
       <c r="F335" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G335" s="4"/>
       <c r="H335" s="1"/>
@@ -8996,7 +8996,7 @@
         <v>245</v>
       </c>
       <c r="F336" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G336" s="4"/>
       <c r="H336" s="1"/>
@@ -9015,7 +9015,7 @@
         <v>245</v>
       </c>
       <c r="F337" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G337" s="4"/>
       <c r="H337" s="1"/>
@@ -9034,7 +9034,7 @@
         <v>245</v>
       </c>
       <c r="F338" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G338" s="4"/>
       <c r="H338" s="1"/>
@@ -9053,7 +9053,7 @@
         <v>245</v>
       </c>
       <c r="F339" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G339" s="4"/>
       <c r="H339" s="1"/>
@@ -9072,7 +9072,7 @@
         <v>245</v>
       </c>
       <c r="F340" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G340" s="4"/>
       <c r="H340" s="1"/>
@@ -9091,7 +9091,7 @@
         <v>245</v>
       </c>
       <c r="F341" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G341" s="4"/>
       <c r="H341" s="1"/>
@@ -9110,7 +9110,7 @@
         <v>245</v>
       </c>
       <c r="F342" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G342" s="4"/>
       <c r="H342" s="1"/>
@@ -9129,7 +9129,7 @@
         <v>245</v>
       </c>
       <c r="F343" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G343" s="4"/>
       <c r="H343" s="1"/>
@@ -9148,7 +9148,7 @@
         <v>245</v>
       </c>
       <c r="F344" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G344" s="4"/>
       <c r="H344" s="1"/>
@@ -9167,7 +9167,7 @@
         <v>245</v>
       </c>
       <c r="F345" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G345" s="4"/>
       <c r="H345" s="1"/>
@@ -9186,7 +9186,7 @@
         <v>245</v>
       </c>
       <c r="F346" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G346" s="4"/>
       <c r="H346" s="1"/>
@@ -9205,7 +9205,7 @@
         <v>245</v>
       </c>
       <c r="F347" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G347" s="4"/>
       <c r="H347" s="1"/>
@@ -9224,7 +9224,7 @@
         <v>245</v>
       </c>
       <c r="F348" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G348" s="4"/>
       <c r="H348" s="1"/>
@@ -9243,7 +9243,7 @@
         <v>245</v>
       </c>
       <c r="F349" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G349" s="4"/>
       <c r="H349" s="1"/>
@@ -9262,7 +9262,7 @@
         <v>245</v>
       </c>
       <c r="F350" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G350" s="4"/>
       <c r="H350" s="1"/>
@@ -9281,7 +9281,7 @@
         <v>245</v>
       </c>
       <c r="F351" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G351" s="4"/>
       <c r="H351" s="1"/>
@@ -9300,7 +9300,7 @@
         <v>245</v>
       </c>
       <c r="F352" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G352" s="4"/>
       <c r="H352" s="1"/>
@@ -9319,7 +9319,7 @@
         <v>245</v>
       </c>
       <c r="F353" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G353" s="4"/>
       <c r="H353" s="1"/>
@@ -9338,7 +9338,7 @@
         <v>245</v>
       </c>
       <c r="F354" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G354" s="4"/>
       <c r="H354" s="1"/>
@@ -9357,7 +9357,7 @@
         <v>245</v>
       </c>
       <c r="F355" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G355" s="4"/>
       <c r="H355" s="1"/>
@@ -9376,7 +9376,7 @@
         <v>245</v>
       </c>
       <c r="F356" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G356" s="4"/>
       <c r="H356" s="1"/>
@@ -9395,7 +9395,7 @@
         <v>245</v>
       </c>
       <c r="F357" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G357" s="4"/>
       <c r="H357" s="1"/>
@@ -9414,7 +9414,7 @@
         <v>245</v>
       </c>
       <c r="F358" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G358" s="4"/>
       <c r="H358" s="1"/>
@@ -9436,7 +9436,7 @@
         <v>1</v>
       </c>
       <c r="F359" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G359" s="10"/>
     </row>
@@ -9457,7 +9457,7 @@
         <v>2</v>
       </c>
       <c r="F360" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G360" s="10"/>
       <c r="H360" s="4"/>
@@ -9480,7 +9480,7 @@
         <v>3</v>
       </c>
       <c r="F361" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G361" s="10"/>
       <c r="H361" s="4"/>
@@ -9503,7 +9503,7 @@
         <v>4</v>
       </c>
       <c r="F362" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G362" s="10"/>
       <c r="H362" s="4"/>
@@ -9526,7 +9526,7 @@
         <v>5</v>
       </c>
       <c r="F363" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G363" s="10"/>
       <c r="H363" s="4"/>
@@ -9549,7 +9549,7 @@
         <v>6</v>
       </c>
       <c r="F364" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G364" s="10"/>
       <c r="H364" s="4"/>
@@ -9572,7 +9572,7 @@
         <v>7</v>
       </c>
       <c r="F365" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G365" s="10"/>
       <c r="H365" s="4"/>
@@ -9595,7 +9595,7 @@
         <v>8</v>
       </c>
       <c r="F366" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G366" s="10"/>
       <c r="H366" s="4"/>
@@ -9618,7 +9618,7 @@
         <v>9</v>
       </c>
       <c r="F367" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G367" s="11"/>
       <c r="H367" s="4"/>
@@ -9641,7 +9641,7 @@
         <v>10</v>
       </c>
       <c r="F368" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G368" s="10"/>
       <c r="H368" s="4"/>
@@ -9664,7 +9664,7 @@
         <v>11</v>
       </c>
       <c r="F369" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G369" s="10"/>
       <c r="H369" s="4"/>
@@ -9687,7 +9687,7 @@
         <v>12</v>
       </c>
       <c r="F370" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G370" s="10"/>
       <c r="H370" s="4"/>
@@ -9710,7 +9710,7 @@
         <v>13</v>
       </c>
       <c r="F371" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G371" s="10"/>
       <c r="H371" s="4"/>
@@ -9733,7 +9733,7 @@
         <v>14</v>
       </c>
       <c r="F372" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G372" s="10"/>
       <c r="H372" s="4"/>
@@ -9756,7 +9756,7 @@
         <v>15</v>
       </c>
       <c r="F373" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G373" s="10"/>
       <c r="H373" s="4"/>
@@ -9779,7 +9779,7 @@
         <v>16</v>
       </c>
       <c r="F374" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G374" s="10"/>
       <c r="H374" s="4"/>
@@ -9802,7 +9802,7 @@
         <v>17</v>
       </c>
       <c r="F375" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G375" s="10"/>
       <c r="H375" s="4"/>
@@ -9825,7 +9825,7 @@
         <v>18</v>
       </c>
       <c r="F376" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G376" s="10"/>
       <c r="H376" s="4"/>
@@ -9848,7 +9848,7 @@
         <v>19</v>
       </c>
       <c r="F377" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G377" s="10"/>
       <c r="H377" s="4"/>
@@ -9871,7 +9871,7 @@
         <v>20</v>
       </c>
       <c r="F378" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G378" s="10"/>
       <c r="H378" s="4"/>
@@ -9894,7 +9894,7 @@
         <v>21</v>
       </c>
       <c r="F379" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G379" s="10"/>
       <c r="H379" s="4"/>
@@ -9917,7 +9917,7 @@
         <v>22</v>
       </c>
       <c r="F380" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G380" s="10"/>
       <c r="H380" s="4"/>
@@ -9940,7 +9940,7 @@
         <v>23</v>
       </c>
       <c r="F381" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G381" s="10"/>
       <c r="H381" s="4"/>
@@ -9963,7 +9963,7 @@
         <v>24</v>
       </c>
       <c r="F382" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G382" s="10"/>
       <c r="H382" s="4"/>
@@ -9986,7 +9986,7 @@
         <v>25</v>
       </c>
       <c r="F383" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G383" s="10"/>
       <c r="H383" s="4"/>
